--- a/files/Kontakty.xlsx
+++ b/files/Kontakty.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\intranet\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02949DC-7762-4E64-A40D-AAE0BE324F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Blažek Petr</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Jméno</t>
   </si>
@@ -195,59 +196,62 @@
     <t>ředitel</t>
   </si>
   <si>
-    <t>účetní</t>
-  </si>
-  <si>
-    <t>Karel Novák</t>
-  </si>
-  <si>
-    <t>Novák</t>
-  </si>
-  <si>
-    <t>Novák Karel</t>
-  </si>
-  <si>
-    <t>ing.</t>
-  </si>
-  <si>
-    <t>řidič</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Jana Nováková</t>
-  </si>
-  <si>
-    <t>šatnář</t>
-  </si>
-  <si>
-    <t>Europlast</t>
-  </si>
-  <si>
-    <t>karel@novak.cz</t>
-  </si>
-  <si>
     <t>Podolí 123, Praha</t>
   </si>
   <si>
     <t>Brno</t>
   </si>
   <si>
-    <t>732169364, 147 254 778</t>
-  </si>
-  <si>
-    <t>603 014 147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">778124874,123854147 </t>
+    <t>Petr</t>
+  </si>
+  <si>
+    <t>Blažek Petr</t>
+  </si>
+  <si>
+    <t>Petr Blažek</t>
+  </si>
+  <si>
+    <t>MUDr. Ing,</t>
+  </si>
+  <si>
+    <t>obchodní zástupce</t>
+  </si>
+  <si>
+    <t>Topinka s.r.o.</t>
+  </si>
+  <si>
+    <t>577 607 240, 602 787 202</t>
+  </si>
+  <si>
+    <t>Mgr.</t>
+  </si>
+  <si>
+    <t>775101719, 775101684</t>
+  </si>
+  <si>
+    <t>pblazek@hame.cz</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Poznámka</t>
+  </si>
+  <si>
+    <t>prodej stavebního materiálu</t>
+  </si>
+  <si>
+    <t>www.hame.cz</t>
+  </si>
+  <si>
+    <t>servis veřejného osvětlení</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +445,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -794,7 +805,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -804,26 +815,33 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % – Zvýraznění1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Hypertextový odkaz" xfId="42" builtinId="8"/>
     <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -1125,17 +1143,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1160,286 +1178,800 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="4">
+        <v>736624696</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4">
-        <v>603444214</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="1"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="1"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="1"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="1"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="10"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="10"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="10"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="10"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="10"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="10"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="10"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="10"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="1"/>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="1"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
@@ -1474,10 +2006,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{2032C2F6-DA5B-4533-9AC1-96C60A6CB8E1}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{361B87BE-FA9B-4A99-A7D1-42B83B738575}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>